--- a/CHDN DCF.xlsx
+++ b/CHDN DCF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente1\Desktop\DCFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A368BA3-15B4-4A3F-B95D-C5EDE77543CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA6F89A-CE1F-4C6D-91CA-FA7CB37A810D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3F256251-7061-49B2-9B0B-301EC1E08ECF}"/>
   </bookViews>
@@ -429,7 +429,7 @@
     <t>Churchill Downs Inc. DCF</t>
   </si>
   <si>
-    <t>Update: 29/06/2023</t>
+    <t>Update: 30/06/2023</t>
   </si>
 </sst>
 </file>
@@ -438,11 +438,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_(\$* #,##0_);_(\$* \(#,##0\);_(\$* \-_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="\(#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="169" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;($&quot;#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
-    <numFmt numFmtId="171" formatCode="\(#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_(\$* #,##0_);_(\$* \(#,##0\);_(\$* \-_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="\(#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="167" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="&quot;($&quot;#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
+    <numFmt numFmtId="169" formatCode="\(#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -748,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -855,31 +855,24 @@
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1198,7 +1191,7 @@
   <dimension ref="A1:CH65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,7 +1306,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="8">
         <f>WACC!K14</f>
-        <v>0.10214834980722237</v>
+        <v>0.10221604341431378</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
@@ -1322,7 +1315,7 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="7">
-        <v>136.19</v>
+        <v>139.94999999999999</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
@@ -1331,7 +1324,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="7">
         <f>(J6/J5)-1</f>
-        <v>1.6936148824045816E-2</v>
+        <v>-1.1471896532210701E-2</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
@@ -1358,7 +1351,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="59">
         <f>E64</f>
-        <v>138.49653410834679</v>
+        <v>138.3445080803171</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1484,31 +1477,31 @@
       <c r="I10" s="65">
         <v>2023</v>
       </c>
-      <c r="J10" s="95">
+      <c r="J10" s="10">
         <v>2024</v>
       </c>
-      <c r="K10" s="95">
+      <c r="K10" s="10">
         <v>2025</v>
       </c>
-      <c r="L10" s="95">
+      <c r="L10" s="10">
         <v>2026</v>
       </c>
-      <c r="M10" s="95">
+      <c r="M10" s="10">
         <v>2027</v>
       </c>
-      <c r="N10" s="95">
+      <c r="N10" s="10">
         <v>2028</v>
       </c>
-      <c r="O10" s="95">
+      <c r="O10" s="10">
         <v>2029</v>
       </c>
-      <c r="P10" s="95">
+      <c r="P10" s="10">
         <v>2030</v>
       </c>
-      <c r="Q10" s="95">
+      <c r="Q10" s="10">
         <v>2031</v>
       </c>
-      <c r="R10" s="95">
+      <c r="R10" s="10">
         <v>2032</v>
       </c>
     </row>
@@ -1541,37 +1534,37 @@
       <c r="I11" s="20">
         <v>2540</v>
       </c>
-      <c r="J11" s="96">
+      <c r="J11" s="18">
         <v>3010</v>
       </c>
-      <c r="K11" s="96">
+      <c r="K11" s="18">
         <v>3230</v>
       </c>
-      <c r="L11" s="96">
+      <c r="L11" s="18">
         <f t="shared" ref="L11" si="1">K11*(1+L12)</f>
         <v>3465.79</v>
       </c>
-      <c r="M11" s="96">
+      <c r="M11" s="18">
         <f t="shared" ref="M11" si="2">L11*(1+M12)</f>
         <v>3718.7926699999998</v>
       </c>
-      <c r="N11" s="96">
+      <c r="N11" s="18">
         <f t="shared" ref="N11" si="3">M11*(1+N12)</f>
         <v>3990.2645349099998</v>
       </c>
-      <c r="O11" s="96">
+      <c r="O11" s="18">
         <f t="shared" ref="O11" si="4">N11*(1+O12)</f>
         <v>4281.5538459584295</v>
       </c>
-      <c r="P11" s="96">
+      <c r="P11" s="18">
         <f t="shared" ref="P11" si="5">O11*(1+P12)</f>
         <v>4594.1072767133946</v>
       </c>
-      <c r="Q11" s="96">
+      <c r="Q11" s="18">
         <f t="shared" ref="Q11" si="6">P11*(1+Q12)</f>
         <v>4929.4771079134725</v>
       </c>
-      <c r="R11" s="96">
+      <c r="R11" s="18">
         <f t="shared" ref="R11" si="7">Q11*(1+R12)</f>
         <v>5289.3289367911557</v>
       </c>
@@ -1603,7 +1596,7 @@
         <v>0.13310793889306272</v>
       </c>
       <c r="I12" s="75">
-        <f t="shared" ref="I12:R12" si="8">(I11/H11)-1</f>
+        <f t="shared" ref="I12:K12" si="8">(I11/H11)-1</f>
         <v>0.40346999668471661</v>
       </c>
       <c r="J12" s="76">
@@ -1646,15 +1639,15 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="84"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
     </row>
     <row r="14" spans="1:18" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1736,15 +1729,15 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="98"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1779,39 +1772,39 @@
         <f>I11*I17</f>
         <v>993.14</v>
       </c>
-      <c r="J16" s="96">
+      <c r="J16" s="18">
         <f t="shared" ref="J16:R16" si="11">J11*J17</f>
         <v>1279.25</v>
       </c>
-      <c r="K16" s="96">
+      <c r="K16" s="18">
         <f>K11*K17</f>
         <v>1388.9</v>
       </c>
-      <c r="L16" s="96">
+      <c r="L16" s="18">
         <f t="shared" si="11"/>
         <v>1507.6186499999999</v>
       </c>
-      <c r="M16" s="96">
+      <c r="M16" s="18">
         <f t="shared" si="11"/>
         <v>1636.2687747999998</v>
       </c>
-      <c r="N16" s="96">
+      <c r="N16" s="18">
         <f t="shared" si="11"/>
         <v>1775.66771803495</v>
       </c>
-      <c r="O16" s="96">
+      <c r="O16" s="18">
         <f t="shared" si="11"/>
         <v>1926.6992306812933</v>
       </c>
-      <c r="P16" s="96">
+      <c r="P16" s="18">
         <f t="shared" si="11"/>
         <v>2090.3188109045946</v>
       </c>
-      <c r="Q16" s="96">
+      <c r="Q16" s="18">
         <f t="shared" si="11"/>
         <v>2267.5594696401977</v>
       </c>
-      <c r="R16" s="96">
+      <c r="R16" s="18">
         <f t="shared" si="11"/>
         <v>2459.5379556078874</v>
       </c>
@@ -1848,38 +1841,38 @@
       <c r="I17" s="78">
         <v>0.39100000000000001</v>
       </c>
-      <c r="J17" s="99">
+      <c r="J17" s="91">
         <v>0.42499999999999999</v>
       </c>
-      <c r="K17" s="99">
+      <c r="K17" s="91">
         <f>J17+0.5%</f>
         <v>0.43</v>
       </c>
-      <c r="L17" s="99">
+      <c r="L17" s="91">
         <f t="shared" ref="L17:R17" si="13">K17+0.5%</f>
         <v>0.435</v>
       </c>
-      <c r="M17" s="99">
+      <c r="M17" s="91">
         <f t="shared" si="13"/>
         <v>0.44</v>
       </c>
-      <c r="N17" s="99">
+      <c r="N17" s="91">
         <f t="shared" si="13"/>
         <v>0.44500000000000001</v>
       </c>
-      <c r="O17" s="99">
+      <c r="O17" s="91">
         <f t="shared" si="13"/>
         <v>0.45</v>
       </c>
-      <c r="P17" s="99">
+      <c r="P17" s="91">
         <f t="shared" si="13"/>
         <v>0.45500000000000002</v>
       </c>
-      <c r="Q17" s="99">
+      <c r="Q17" s="91">
         <f t="shared" si="13"/>
         <v>0.46</v>
       </c>
-      <c r="R17" s="99">
+      <c r="R17" s="91">
         <f t="shared" si="13"/>
         <v>0.46500000000000002</v>
       </c>
@@ -1894,15 +1887,15 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="96"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
     </row>
     <row r="19" spans="1:18" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -1934,39 +1927,39 @@
         <f t="shared" ref="I19:R19" si="14">I20*I11</f>
         <v>223.51999999999998</v>
       </c>
-      <c r="J19" s="96">
+      <c r="J19" s="18">
         <f t="shared" si="14"/>
         <v>270.89999999999998</v>
       </c>
-      <c r="K19" s="96">
+      <c r="K19" s="18">
         <f t="shared" si="14"/>
         <v>290.7</v>
       </c>
-      <c r="L19" s="96">
+      <c r="L19" s="18">
         <f t="shared" si="14"/>
         <v>311.92109999999997</v>
       </c>
-      <c r="M19" s="96">
+      <c r="M19" s="18">
         <f t="shared" si="14"/>
         <v>334.69134029999998</v>
       </c>
-      <c r="N19" s="96">
+      <c r="N19" s="18">
         <f t="shared" si="14"/>
         <v>359.12380814189999</v>
       </c>
-      <c r="O19" s="96">
+      <c r="O19" s="18">
         <f t="shared" si="14"/>
         <v>385.33984613625864</v>
       </c>
-      <c r="P19" s="96">
+      <c r="P19" s="18">
         <f t="shared" si="14"/>
         <v>413.46965490420553</v>
       </c>
-      <c r="Q19" s="96">
+      <c r="Q19" s="18">
         <f t="shared" si="14"/>
         <v>443.65293971221251</v>
       </c>
-      <c r="R19" s="96">
+      <c r="R19" s="18">
         <f t="shared" si="14"/>
         <v>476.03960431120402</v>
       </c>
@@ -2082,39 +2075,39 @@
         <f>I23*I11</f>
         <v>127</v>
       </c>
-      <c r="J22" s="100">
+      <c r="J22" s="11">
         <f t="shared" ref="J22:R22" si="16">J23*J11</f>
         <v>150.5</v>
       </c>
-      <c r="K22" s="100">
+      <c r="K22" s="11">
         <f t="shared" si="16"/>
         <v>161.5</v>
       </c>
-      <c r="L22" s="100">
+      <c r="L22" s="11">
         <f t="shared" si="16"/>
         <v>121.30265000000001</v>
       </c>
-      <c r="M22" s="100">
+      <c r="M22" s="11">
         <f t="shared" si="16"/>
         <v>130.15774345</v>
       </c>
-      <c r="N22" s="100">
+      <c r="N22" s="11">
         <f t="shared" si="16"/>
         <v>139.65925872184999</v>
       </c>
-      <c r="O22" s="100">
+      <c r="O22" s="11">
         <f t="shared" si="16"/>
         <v>149.85438460854505</v>
       </c>
-      <c r="P22" s="100">
+      <c r="P22" s="11">
         <f t="shared" si="16"/>
         <v>160.79375468496883</v>
       </c>
-      <c r="Q22" s="100">
+      <c r="Q22" s="11">
         <f t="shared" si="16"/>
         <v>172.53169877697155</v>
       </c>
-      <c r="R22" s="100">
+      <c r="R22" s="11">
         <f t="shared" si="16"/>
         <v>185.12651278769047</v>
       </c>
@@ -2189,15 +2182,15 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="39"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
     </row>
     <row r="25" spans="1:18" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -2232,39 +2225,39 @@
         <f t="shared" ref="I25:R25" si="19">I19+I22</f>
         <v>350.52</v>
       </c>
-      <c r="J25" s="100">
+      <c r="J25" s="11">
         <f t="shared" si="19"/>
         <v>421.4</v>
       </c>
-      <c r="K25" s="100">
+      <c r="K25" s="11">
         <f t="shared" si="19"/>
         <v>452.2</v>
       </c>
-      <c r="L25" s="100">
+      <c r="L25" s="11">
         <f t="shared" si="19"/>
         <v>433.22375</v>
       </c>
-      <c r="M25" s="100">
+      <c r="M25" s="11">
         <f t="shared" si="19"/>
         <v>464.84908374999998</v>
       </c>
-      <c r="N25" s="100">
+      <c r="N25" s="11">
         <f t="shared" si="19"/>
         <v>498.78306686374998</v>
       </c>
-      <c r="O25" s="100">
+      <c r="O25" s="11">
         <f t="shared" si="19"/>
         <v>535.19423074480369</v>
       </c>
-      <c r="P25" s="100">
+      <c r="P25" s="11">
         <f t="shared" si="19"/>
         <v>574.26340958917433</v>
       </c>
-      <c r="Q25" s="100">
+      <c r="Q25" s="11">
         <f t="shared" si="19"/>
         <v>616.18463848918407</v>
       </c>
-      <c r="R25" s="100">
+      <c r="R25" s="11">
         <f t="shared" si="19"/>
         <v>661.16611709889446</v>
       </c>
@@ -2322,39 +2315,39 @@
         <f>I16-I25</f>
         <v>642.62</v>
       </c>
-      <c r="J27" s="100">
+      <c r="J27" s="11">
         <f t="shared" si="20"/>
         <v>857.85</v>
       </c>
-      <c r="K27" s="100">
+      <c r="K27" s="11">
         <f t="shared" si="20"/>
         <v>936.7</v>
       </c>
-      <c r="L27" s="100">
+      <c r="L27" s="11">
         <f t="shared" si="20"/>
         <v>1074.3948999999998</v>
       </c>
-      <c r="M27" s="100">
+      <c r="M27" s="11">
         <f t="shared" si="20"/>
         <v>1171.41969105</v>
       </c>
-      <c r="N27" s="100">
+      <c r="N27" s="11">
         <f t="shared" si="20"/>
         <v>1276.8846511711999</v>
       </c>
-      <c r="O27" s="100">
+      <c r="O27" s="11">
         <f t="shared" si="20"/>
         <v>1391.5049999364896</v>
       </c>
-      <c r="P27" s="100">
+      <c r="P27" s="11">
         <f t="shared" si="20"/>
         <v>1516.0554013154201</v>
       </c>
-      <c r="Q27" s="100">
+      <c r="Q27" s="11">
         <f t="shared" si="20"/>
         <v>1651.3748311510135</v>
       </c>
-      <c r="R27" s="100">
+      <c r="R27" s="11">
         <f t="shared" si="20"/>
         <v>1798.3718385089928</v>
       </c>
@@ -2389,39 +2382,39 @@
         <f t="shared" ref="I28:R28" si="21">I29*I11</f>
         <v>22.86</v>
       </c>
-      <c r="J28" s="96">
+      <c r="J28" s="18">
         <f t="shared" si="21"/>
         <v>-87.29</v>
       </c>
-      <c r="K28" s="96">
+      <c r="K28" s="18">
         <f t="shared" si="21"/>
         <v>-93.67</v>
       </c>
-      <c r="L28" s="96">
+      <c r="L28" s="18">
         <f t="shared" si="21"/>
         <v>-100.50791000000001</v>
       </c>
-      <c r="M28" s="96">
+      <c r="M28" s="18">
         <f t="shared" si="21"/>
         <v>-107.84498743</v>
       </c>
-      <c r="N28" s="96">
+      <c r="N28" s="18">
         <f t="shared" si="21"/>
         <v>-115.71767151239</v>
       </c>
-      <c r="O28" s="96">
+      <c r="O28" s="18">
         <f t="shared" si="21"/>
         <v>-124.16506153279447</v>
       </c>
-      <c r="P28" s="96">
+      <c r="P28" s="18">
         <f t="shared" si="21"/>
         <v>-133.22911102468845</v>
       </c>
-      <c r="Q28" s="96">
+      <c r="Q28" s="18">
         <f t="shared" si="21"/>
         <v>-142.9548361294907</v>
       </c>
-      <c r="R28" s="96">
+      <c r="R28" s="18">
         <f t="shared" si="21"/>
         <v>-153.39053916694351</v>
       </c>
@@ -2458,31 +2451,31 @@
       <c r="I29" s="78">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J29" s="99">
+      <c r="J29" s="91">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="K29" s="99">
+      <c r="K29" s="91">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="L29" s="99">
+      <c r="L29" s="91">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="M29" s="99">
+      <c r="M29" s="91">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="N29" s="99">
+      <c r="N29" s="91">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="O29" s="99">
+      <c r="O29" s="91">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="P29" s="99">
+      <c r="P29" s="91">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="Q29" s="99">
+      <c r="Q29" s="91">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="R29" s="99">
+      <c r="R29" s="91">
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
@@ -2496,15 +2489,15 @@
       <c r="G30" s="67"/>
       <c r="H30" s="67"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="98"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -2539,39 +2532,39 @@
         <f t="shared" si="23"/>
         <v>665.48</v>
       </c>
-      <c r="J31" s="100">
+      <c r="J31" s="11">
         <f t="shared" si="23"/>
         <v>770.56000000000006</v>
       </c>
-      <c r="K31" s="100">
+      <c r="K31" s="11">
         <f t="shared" si="23"/>
         <v>843.03000000000009</v>
       </c>
-      <c r="L31" s="100">
+      <c r="L31" s="11">
         <f t="shared" si="23"/>
         <v>973.88698999999974</v>
       </c>
-      <c r="M31" s="100">
+      <c r="M31" s="11">
         <f t="shared" si="23"/>
         <v>1063.57470362</v>
       </c>
-      <c r="N31" s="100">
+      <c r="N31" s="11">
         <f t="shared" si="23"/>
         <v>1161.1669796588099</v>
       </c>
-      <c r="O31" s="100">
+      <c r="O31" s="11">
         <f t="shared" si="23"/>
         <v>1267.3399384036952</v>
       </c>
-      <c r="P31" s="100">
+      <c r="P31" s="11">
         <f t="shared" si="23"/>
         <v>1382.8262902907318</v>
       </c>
-      <c r="Q31" s="100">
+      <c r="Q31" s="11">
         <f t="shared" si="23"/>
         <v>1508.4199950215227</v>
       </c>
-      <c r="R31" s="100">
+      <c r="R31" s="11">
         <f t="shared" si="23"/>
         <v>1644.9812993420494</v>
       </c>
@@ -2586,15 +2579,15 @@
       <c r="G32" s="21"/>
       <c r="H32" s="67"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="98"/>
-      <c r="R32" s="98"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:86" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -2629,39 +2622,39 @@
         <f t="shared" si="24"/>
         <v>642.62</v>
       </c>
-      <c r="J33" s="100">
+      <c r="J33" s="11">
         <f t="shared" si="24"/>
         <v>857.85</v>
       </c>
-      <c r="K33" s="100">
+      <c r="K33" s="11">
         <f t="shared" si="24"/>
         <v>936.7</v>
       </c>
-      <c r="L33" s="100">
+      <c r="L33" s="11">
         <f t="shared" si="24"/>
         <v>1074.3948999999998</v>
       </c>
-      <c r="M33" s="100">
+      <c r="M33" s="11">
         <f t="shared" si="24"/>
         <v>1171.41969105</v>
       </c>
-      <c r="N33" s="100">
+      <c r="N33" s="11">
         <f t="shared" si="24"/>
         <v>1276.8846511711999</v>
       </c>
-      <c r="O33" s="100">
+      <c r="O33" s="11">
         <f t="shared" si="24"/>
         <v>1391.5049999364896</v>
       </c>
-      <c r="P33" s="100">
+      <c r="P33" s="11">
         <f t="shared" si="24"/>
         <v>1516.0554013154201</v>
       </c>
-      <c r="Q33" s="100">
+      <c r="Q33" s="11">
         <f t="shared" si="24"/>
         <v>1651.3748311510135</v>
       </c>
-      <c r="R33" s="100">
+      <c r="R33" s="11">
         <f t="shared" si="24"/>
         <v>1798.3718385089928</v>
       </c>
@@ -2746,15 +2739,15 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="98"/>
-      <c r="R35" s="98"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
     </row>
     <row r="36" spans="1:86" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
@@ -2786,39 +2779,39 @@
         <f>I33*I37</f>
         <v>-170.744134</v>
       </c>
-      <c r="J36" s="96">
+      <c r="J36" s="18">
         <f t="shared" ref="J36:R36" si="26">J33*J37</f>
         <v>-231.61950000000002</v>
       </c>
-      <c r="K36" s="96">
+      <c r="K36" s="18">
         <f t="shared" si="26"/>
         <v>-243.54200000000003</v>
       </c>
-      <c r="L36" s="96">
+      <c r="L36" s="18">
         <f t="shared" si="26"/>
         <v>-279.34267399999993</v>
       </c>
-      <c r="M36" s="96">
+      <c r="M36" s="18">
         <f t="shared" si="26"/>
         <v>-304.56911967299999</v>
       </c>
-      <c r="N36" s="96">
+      <c r="N36" s="18">
         <f t="shared" si="26"/>
         <v>-331.990009304512</v>
       </c>
-      <c r="O36" s="96">
+      <c r="O36" s="18">
         <f t="shared" si="26"/>
         <v>-361.79129998348731</v>
       </c>
-      <c r="P36" s="96">
+      <c r="P36" s="18">
         <f t="shared" si="26"/>
         <v>-394.17440434200927</v>
       </c>
-      <c r="Q36" s="96">
+      <c r="Q36" s="18">
         <f t="shared" si="26"/>
         <v>-429.35745609926352</v>
       </c>
-      <c r="R36" s="96">
+      <c r="R36" s="18">
         <f t="shared" si="26"/>
         <v>-467.57667801233816</v>
       </c>
@@ -2855,31 +2848,31 @@
       <c r="I37" s="78">
         <v>-0.26569999999999999</v>
       </c>
-      <c r="J37" s="99">
+      <c r="J37" s="91">
         <v>-0.27</v>
       </c>
-      <c r="K37" s="99">
+      <c r="K37" s="91">
         <v>-0.26</v>
       </c>
-      <c r="L37" s="99">
+      <c r="L37" s="91">
         <v>-0.26</v>
       </c>
-      <c r="M37" s="99">
+      <c r="M37" s="91">
         <v>-0.26</v>
       </c>
-      <c r="N37" s="99">
+      <c r="N37" s="91">
         <v>-0.26</v>
       </c>
-      <c r="O37" s="99">
+      <c r="O37" s="91">
         <v>-0.26</v>
       </c>
-      <c r="P37" s="99">
+      <c r="P37" s="91">
         <v>-0.26</v>
       </c>
-      <c r="Q37" s="99">
+      <c r="Q37" s="91">
         <v>-0.26</v>
       </c>
-      <c r="R37" s="99">
+      <c r="R37" s="91">
         <v>-0.26</v>
       </c>
     </row>
@@ -2893,15 +2886,15 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="12"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="98"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="98"/>
-      <c r="O38" s="98"/>
-      <c r="P38" s="98"/>
-      <c r="Q38" s="98"/>
-      <c r="R38" s="98"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
     </row>
     <row r="39" spans="1:86" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -2929,31 +2922,31 @@
       <c r="I39" s="66">
         <v>2023</v>
       </c>
-      <c r="J39" s="101">
+      <c r="J39" s="9">
         <v>2024</v>
       </c>
-      <c r="K39" s="101">
+      <c r="K39" s="9">
         <v>2025</v>
       </c>
-      <c r="L39" s="101">
+      <c r="L39" s="9">
         <v>2026</v>
       </c>
-      <c r="M39" s="101">
+      <c r="M39" s="9">
         <v>2027</v>
       </c>
-      <c r="N39" s="101">
+      <c r="N39" s="9">
         <v>2028</v>
       </c>
-      <c r="O39" s="101">
+      <c r="O39" s="9">
         <v>2029</v>
       </c>
-      <c r="P39" s="101">
+      <c r="P39" s="9">
         <v>2030</v>
       </c>
-      <c r="Q39" s="101">
+      <c r="Q39" s="9">
         <v>2031</v>
       </c>
-      <c r="R39" s="101">
+      <c r="R39" s="9">
         <v>2032</v>
       </c>
       <c r="S39" s="9">
@@ -3190,37 +3183,37 @@
       <c r="I40" s="20">
         <v>143.13</v>
       </c>
-      <c r="J40" s="96">
+      <c r="J40" s="18">
         <v>156.69999999999999</v>
       </c>
-      <c r="K40" s="96">
+      <c r="K40" s="18">
         <v>171.2</v>
       </c>
-      <c r="L40" s="96">
+      <c r="L40" s="18">
         <f t="shared" ref="L40" si="28">L41*L11</f>
         <v>180.23180999999997</v>
       </c>
-      <c r="M40" s="96">
+      <c r="M40" s="18">
         <f t="shared" ref="M40" si="29">M41*M11</f>
         <v>189.66993945999997</v>
       </c>
-      <c r="N40" s="96">
+      <c r="N40" s="18">
         <f t="shared" ref="N40" si="30">N41*N11</f>
         <v>199.52558050566995</v>
       </c>
-      <c r="O40" s="96">
+      <c r="O40" s="18">
         <f t="shared" ref="O40" si="31">O41*O11</f>
         <v>209.80939403662543</v>
       </c>
-      <c r="P40" s="96">
+      <c r="P40" s="18">
         <f t="shared" ref="P40" si="32">P41*P11</f>
         <v>220.53137252458566</v>
       </c>
-      <c r="Q40" s="96">
+      <c r="Q40" s="18">
         <f t="shared" ref="Q40" si="33">Q41*Q11</f>
         <v>231.70068561096696</v>
       </c>
-      <c r="R40" s="96">
+      <c r="R40" s="18">
         <f t="shared" ref="R40" si="34">R41*R11</f>
         <v>243.32550672377636</v>
       </c>
@@ -3231,7 +3224,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="74">
-        <f t="shared" ref="C41:R41" si="35">C40/C11</f>
+        <f t="shared" ref="C41:K41" si="35">C40/C11</f>
         <v>0.11001586222524359</v>
       </c>
       <c r="D41" s="74">
@@ -3305,15 +3298,15 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="98"/>
-      <c r="L42" s="98"/>
-      <c r="M42" s="98"/>
-      <c r="N42" s="98"/>
-      <c r="O42" s="98"/>
-      <c r="P42" s="98"/>
-      <c r="Q42" s="98"/>
-      <c r="R42" s="98"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:86" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
@@ -3346,37 +3339,37 @@
       <c r="I43" s="20">
         <v>-707.5</v>
       </c>
-      <c r="J43" s="96">
+      <c r="J43" s="18">
         <v>-570.77</v>
       </c>
-      <c r="K43" s="96">
+      <c r="K43" s="18">
         <v>-93.1</v>
       </c>
-      <c r="L43" s="96">
-        <f t="shared" ref="K43:Q43" si="37">L44*L11</f>
+      <c r="L43" s="18">
+        <f t="shared" ref="L43:Q43" si="37">L44*L11</f>
         <v>-117.22524999999999</v>
       </c>
-      <c r="M43" s="96">
+      <c r="M43" s="18">
         <f t="shared" si="37"/>
         <v>-144.37665659999996</v>
       </c>
-      <c r="N43" s="96">
+      <c r="N43" s="18">
         <f t="shared" si="37"/>
         <v>-174.86747520634995</v>
       </c>
-      <c r="O43" s="96">
+      <c r="O43" s="18">
         <f t="shared" si="37"/>
         <v>-191.91435474237193</v>
       </c>
-      <c r="P43" s="96">
+      <c r="P43" s="18">
         <f t="shared" si="37"/>
         <v>-210.51820991527848</v>
       </c>
-      <c r="Q43" s="96">
+      <c r="Q43" s="18">
         <f t="shared" si="37"/>
         <v>-230.81551634700728</v>
       </c>
-      <c r="R43" s="96">
+      <c r="R43" s="18">
         <f>R44*R11</f>
         <v>-252.95437797712995</v>
       </c>
@@ -3461,15 +3454,15 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="98"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="98"/>
-      <c r="N45" s="98"/>
-      <c r="O45" s="98"/>
-      <c r="P45" s="98"/>
-      <c r="Q45" s="98"/>
-      <c r="R45" s="98"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
     </row>
     <row r="46" spans="1:86" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
@@ -3501,39 +3494,39 @@
         <f t="shared" ref="I46:R46" si="41">I47*I11</f>
         <v>50.800000000000004</v>
       </c>
-      <c r="J46" s="96">
+      <c r="J46" s="18">
         <f t="shared" si="41"/>
         <v>60.2</v>
       </c>
-      <c r="K46" s="96">
+      <c r="K46" s="18">
         <f t="shared" si="41"/>
         <v>64.599999999999994</v>
       </c>
-      <c r="L46" s="96">
+      <c r="L46" s="18">
         <f t="shared" si="41"/>
         <v>69.315799999999996</v>
       </c>
-      <c r="M46" s="96">
+      <c r="M46" s="18">
         <f t="shared" si="41"/>
         <v>74.375853399999997</v>
       </c>
-      <c r="N46" s="96">
+      <c r="N46" s="18">
         <f t="shared" si="41"/>
         <v>79.805290698199997</v>
       </c>
-      <c r="O46" s="96">
+      <c r="O46" s="18">
         <f t="shared" si="41"/>
         <v>85.631076919168592</v>
       </c>
-      <c r="P46" s="96">
+      <c r="P46" s="18">
         <f t="shared" si="41"/>
         <v>91.882145534267892</v>
       </c>
-      <c r="Q46" s="96">
+      <c r="Q46" s="18">
         <f t="shared" si="41"/>
         <v>98.589542158269452</v>
       </c>
-      <c r="R46" s="96">
+      <c r="R46" s="18">
         <f t="shared" si="41"/>
         <v>105.78657873582311</v>
       </c>
@@ -3570,31 +3563,31 @@
       <c r="I47" s="78">
         <v>0.02</v>
       </c>
-      <c r="J47" s="99">
+      <c r="J47" s="91">
         <v>0.02</v>
       </c>
-      <c r="K47" s="99">
+      <c r="K47" s="91">
         <v>0.02</v>
       </c>
-      <c r="L47" s="99">
+      <c r="L47" s="91">
         <v>0.02</v>
       </c>
-      <c r="M47" s="99">
+      <c r="M47" s="91">
         <v>0.02</v>
       </c>
-      <c r="N47" s="99">
+      <c r="N47" s="91">
         <v>0.02</v>
       </c>
-      <c r="O47" s="99">
+      <c r="O47" s="91">
         <v>0.02</v>
       </c>
-      <c r="P47" s="99">
+      <c r="P47" s="91">
         <v>0.02</v>
       </c>
-      <c r="Q47" s="99">
+      <c r="Q47" s="91">
         <v>0.02</v>
       </c>
-      <c r="R47" s="99">
+      <c r="R47" s="91">
         <v>0.02</v>
       </c>
     </row>
@@ -3608,15 +3601,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="12"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="98"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="98"/>
-      <c r="N48" s="98"/>
-      <c r="O48" s="98"/>
-      <c r="P48" s="98"/>
-      <c r="Q48" s="98"/>
-      <c r="R48" s="98"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:86" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
@@ -3651,39 +3644,39 @@
         <f t="shared" ref="I49:R49" si="44">I33+I36</f>
         <v>471.87586599999997</v>
       </c>
-      <c r="J49" s="100">
+      <c r="J49" s="11">
         <f t="shared" si="44"/>
         <v>626.23050000000001</v>
       </c>
-      <c r="K49" s="100">
+      <c r="K49" s="11">
         <f t="shared" si="44"/>
         <v>693.15800000000002</v>
       </c>
-      <c r="L49" s="100">
+      <c r="L49" s="11">
         <f t="shared" si="44"/>
         <v>795.05222599999979</v>
       </c>
-      <c r="M49" s="100">
+      <c r="M49" s="11">
         <f t="shared" si="44"/>
         <v>866.85057137700005</v>
       </c>
-      <c r="N49" s="100">
+      <c r="N49" s="11">
         <f t="shared" si="44"/>
         <v>944.89464186668795</v>
       </c>
-      <c r="O49" s="100">
+      <c r="O49" s="11">
         <f t="shared" si="44"/>
         <v>1029.7136999530023</v>
       </c>
-      <c r="P49" s="100">
+      <c r="P49" s="11">
         <f t="shared" si="44"/>
         <v>1121.8809969734109</v>
       </c>
-      <c r="Q49" s="100">
+      <c r="Q49" s="11">
         <f t="shared" si="44"/>
         <v>1222.0173750517499</v>
       </c>
-      <c r="R49" s="100">
+      <c r="R49" s="11">
         <f t="shared" si="44"/>
         <v>1330.7951604966547</v>
       </c>
@@ -3710,15 +3703,15 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="100"/>
-      <c r="M50" s="100"/>
-      <c r="N50" s="100"/>
-      <c r="O50" s="100"/>
-      <c r="P50" s="100"/>
-      <c r="Q50" s="100"/>
-      <c r="R50" s="100"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
     </row>
     <row r="51" spans="1:86" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -3753,39 +3746,39 @@
         <f t="shared" ref="I51" si="49">I31+I36+I50</f>
         <v>494.73586599999999</v>
       </c>
-      <c r="J51" s="100">
+      <c r="J51" s="11">
         <f t="shared" ref="J51" si="50">J31+J36+J50</f>
         <v>538.94050000000004</v>
       </c>
-      <c r="K51" s="100">
+      <c r="K51" s="11">
         <f t="shared" ref="K51" si="51">K31+K36+K50</f>
         <v>599.48800000000006</v>
       </c>
-      <c r="L51" s="100">
+      <c r="L51" s="11">
         <f t="shared" ref="L51" si="52">L31+L36+L50</f>
         <v>694.54431599999975</v>
       </c>
-      <c r="M51" s="100">
+      <c r="M51" s="11">
         <f t="shared" ref="M51" si="53">M31+M36+M50</f>
         <v>759.0055839470001</v>
       </c>
-      <c r="N51" s="100">
+      <c r="N51" s="11">
         <f t="shared" ref="N51" si="54">N31+N36+N50</f>
         <v>829.17697035429785</v>
       </c>
-      <c r="O51" s="100">
+      <c r="O51" s="11">
         <f t="shared" ref="O51" si="55">O31+O36+O50</f>
         <v>905.54863842020791</v>
       </c>
-      <c r="P51" s="100">
+      <c r="P51" s="11">
         <f t="shared" ref="P51" si="56">P31+P36+P50</f>
         <v>988.65188594872257</v>
       </c>
-      <c r="Q51" s="100">
+      <c r="Q51" s="11">
         <f t="shared" ref="Q51" si="57">Q31+Q36+Q50</f>
         <v>1079.0625389222591</v>
       </c>
-      <c r="R51" s="100">
+      <c r="R51" s="11">
         <f t="shared" ref="R51" si="58">R31+R36+R50</f>
         <v>1177.4046213297113</v>
       </c>
@@ -4072,15 +4065,15 @@
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="12"/>
-      <c r="J52" s="98"/>
-      <c r="K52" s="98"/>
-      <c r="L52" s="98"/>
-      <c r="M52" s="98"/>
-      <c r="N52" s="98"/>
-      <c r="O52" s="98"/>
-      <c r="P52" s="98"/>
-      <c r="Q52" s="98"/>
-      <c r="R52" s="98"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
     </row>
     <row r="53" spans="1:86" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -4115,39 +4108,39 @@
         <f t="shared" si="61"/>
         <v>-143.29413400000004</v>
       </c>
-      <c r="J53" s="102">
+      <c r="J53" s="24">
         <f t="shared" si="61"/>
         <v>151.96049999999997</v>
       </c>
-      <c r="K53" s="102">
+      <c r="K53" s="24">
         <f t="shared" si="61"/>
         <v>706.6579999999999</v>
       </c>
-      <c r="L53" s="102">
+      <c r="L53" s="24">
         <f t="shared" si="61"/>
         <v>788.74298599999986</v>
       </c>
-      <c r="M53" s="102">
+      <c r="M53" s="24">
         <f t="shared" si="61"/>
         <v>837.76800083700016</v>
       </c>
-      <c r="N53" s="102">
+      <c r="N53" s="24">
         <f t="shared" si="61"/>
         <v>889.74745646780787</v>
       </c>
-      <c r="O53" s="102">
+      <c r="O53" s="24">
         <f t="shared" si="61"/>
         <v>961.97766232808738</v>
       </c>
-      <c r="P53" s="102">
+      <c r="P53" s="24">
         <f t="shared" si="61"/>
         <v>1040.0120140484503</v>
       </c>
-      <c r="Q53" s="102">
+      <c r="Q53" s="24">
         <f t="shared" si="61"/>
         <v>1124.31300215744</v>
       </c>
-      <c r="R53" s="102">
+      <c r="R53" s="24">
         <f t="shared" si="61"/>
         <v>1215.3797105074782</v>
       </c>
@@ -4165,43 +4158,43 @@
       <c r="H54" s="1"/>
       <c r="I54" s="70">
         <f t="shared" ref="I54:R54" si="62">I53/((1+$E$5)^I9)</f>
-        <v>-130.01347234704269</v>
+        <v>-130.0054874506458</v>
       </c>
       <c r="J54" s="71">
         <f t="shared" si="62"/>
-        <v>125.09806852597386</v>
+        <v>125.08270297308815</v>
       </c>
       <c r="K54" s="71">
         <f t="shared" si="62"/>
-        <v>527.82397828317983</v>
+        <v>527.72673387765315</v>
       </c>
       <c r="L54" s="71">
         <f t="shared" si="62"/>
-        <v>534.53394680851886</v>
+        <v>534.40264333905554</v>
       </c>
       <c r="M54" s="71">
         <f t="shared" si="62"/>
-        <v>515.13788961842204</v>
+        <v>514.9797207229783</v>
       </c>
       <c r="N54" s="71">
         <f t="shared" si="62"/>
-        <v>496.39388941801946</v>
+        <v>496.21099859084069</v>
       </c>
       <c r="O54" s="71">
         <f t="shared" si="62"/>
-        <v>486.95026264326998</v>
+        <v>486.74095573837928</v>
       </c>
       <c r="P54" s="71">
         <f t="shared" si="62"/>
-        <v>477.65894855093438</v>
+        <v>477.42431210006623</v>
       </c>
       <c r="Q54" s="71">
         <f t="shared" si="62"/>
-        <v>468.51849597063574</v>
+        <v>468.25958915103865</v>
       </c>
       <c r="R54" s="71">
         <f t="shared" si="62"/>
-        <v>459.52742395682429</v>
+        <v>459.24527896929902</v>
       </c>
     </row>
     <row r="55" spans="1:86" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -4231,7 +4224,7 @@
       </c>
       <c r="C56" s="27">
         <f>(R53*(1+$E$6))/($E$5-$E$6)</f>
-        <v>17350.931867015308</v>
+        <v>17334.667514816767</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
@@ -4239,7 +4232,7 @@
       </c>
       <c r="F56" s="18">
         <f>NPV($E$5,I51:CH51)</f>
-        <v>10839.278101372678</v>
+        <v>10828.250074712485</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -4261,7 +4254,7 @@
       </c>
       <c r="C57" s="28">
         <f>C56/((1+$E$5)^$R$9)</f>
-        <v>6560.2782037316701</v>
+        <v>6550.1045885964613</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="3"/>
@@ -4271,14 +4264,14 @@
       <c r="I57" s="12"/>
       <c r="J57" s="1"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="85" t="s">
+      <c r="L57" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-      <c r="O57" s="85"/>
-      <c r="P57" s="85"/>
-      <c r="Q57" s="85"/>
+      <c r="M57" s="92"/>
+      <c r="N57" s="92"/>
+      <c r="O57" s="92"/>
+      <c r="P57" s="92"/>
+      <c r="Q57" s="92"/>
       <c r="R57" s="2"/>
     </row>
     <row r="58" spans="1:86" x14ac:dyDescent="0.25">
@@ -4301,7 +4294,7 @@
       <c r="K58" s="55"/>
       <c r="L58" s="60">
         <f>E64</f>
-        <v>138.49653410834679</v>
+        <v>138.3445080803171</v>
       </c>
       <c r="M58" s="79">
         <v>-0.01</v>
@@ -4333,11 +4326,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="27">
         <f>C57+SUM(I54:R54)</f>
-        <v>10521.907635160405</v>
+        <v>10510.172036608215</v>
       </c>
       <c r="H59" s="18">
         <f>F56</f>
-        <v>10839.278101372678</v>
+        <v>10828.250074712485</v>
       </c>
       <c r="I59" s="15"/>
       <c r="K59" s="55"/>
@@ -4410,11 +4403,11 @@
       <c r="F61" s="6"/>
       <c r="G61" s="32">
         <f>G59+D59-D60</f>
-        <v>10210.207635160405</v>
+        <v>10198.472036608215</v>
       </c>
       <c r="H61" s="33">
         <f>H59+D59-D60</f>
-        <v>10527.578101372677</v>
+        <v>10516.550074712484</v>
       </c>
       <c r="I61" s="15"/>
       <c r="K61" s="55" t="s">
@@ -4483,7 +4476,7 @@
       <c r="C63" s="17"/>
       <c r="D63" s="64">
         <f>D62*$J$5</f>
-        <v>10196.20836594</v>
+        <v>10477.710263699999</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
@@ -4521,16 +4514,16 @@
       </c>
       <c r="E64" s="36">
         <f>(G64+H64)/2</f>
-        <v>138.49653410834679</v>
+        <v>138.3445080803171</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="36">
         <f>G61/D62</f>
-        <v>136.37698720217367</v>
+        <v>136.22023568146508</v>
       </c>
       <c r="H64" s="37">
         <f>H61/D62</f>
-        <v>140.61608101451995</v>
+        <v>140.46878047916908</v>
       </c>
       <c r="I64" s="15"/>
     </row>
@@ -4566,1135 +4559,790 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="93" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="92">
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="88">
         <v>169.6</v>
       </c>
-      <c r="E6" s="92">
+      <c r="E6" s="88">
         <v>409.1</v>
       </c>
-      <c r="F6" s="92">
+      <c r="F6" s="88">
         <v>614.6</v>
       </c>
-      <c r="G6" s="92"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="92"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="92"/>
+      <c r="G6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="Q6" s="88"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="89">
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="86">
         <v>430.1</v>
       </c>
-      <c r="E7" s="89">
+      <c r="E7" s="86">
         <v>451.4</v>
       </c>
-      <c r="F7" s="89">
+      <c r="F7" s="86">
         <v>436.4</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="89"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="89"/>
+      <c r="G7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="Q7" s="86"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="89">
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="86">
         <v>435.3</v>
       </c>
-      <c r="E8" s="89">
+      <c r="E8" s="86">
         <v>695.4</v>
       </c>
-      <c r="F8" s="89">
+      <c r="F8" s="86">
         <v>755.9</v>
       </c>
-      <c r="G8" s="89"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="89"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="89"/>
+      <c r="G8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="Q8" s="86"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="89">
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="86">
         <v>19</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="86">
         <v>41.3</v>
       </c>
-      <c r="F9" s="89">
+      <c r="F9" s="86">
         <v>2.9</v>
       </c>
-      <c r="G9" s="89"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="89"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="89"/>
+      <c r="G9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="Q9" s="86"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="89">
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="86">
         <v>1054</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="86">
         <v>1597.2</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="86">
         <v>1809.8</v>
       </c>
-      <c r="G10" s="89"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="89"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="89"/>
+      <c r="G10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="Q10" s="86"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="89">
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="86">
         <v>179</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="86">
         <v>288.89999999999998</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="86">
         <v>400.9</v>
       </c>
-      <c r="G12" s="89"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="89"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="89"/>
+      <c r="G12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="Q12" s="86"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="89">
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="86">
         <v>293.10000000000002</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13" s="86">
         <v>345.8</v>
       </c>
-      <c r="F13" s="89">
+      <c r="F13" s="86">
         <v>293.60000000000002</v>
       </c>
-      <c r="G13" s="89"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="89"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="89"/>
+      <c r="G13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="Q13" s="86"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="89">
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="86">
         <v>357.9</v>
       </c>
-      <c r="E14" s="89">
+      <c r="E14" s="86">
         <v>476.3</v>
       </c>
-      <c r="F14" s="89">
+      <c r="F14" s="86">
         <v>537.9</v>
       </c>
-      <c r="G14" s="89"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="89"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="89"/>
+      <c r="G14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="Q14" s="86"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="89">
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="86">
         <v>30.5</v>
       </c>
-      <c r="E15" s="89">
+      <c r="E15" s="86">
         <v>40.1</v>
       </c>
-      <c r="F15" s="89">
+      <c r="F15" s="86">
         <v>11</v>
       </c>
-      <c r="G15" s="89"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="89"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="89"/>
+      <c r="G15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="Q15" s="86"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="89">
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="86">
         <v>114.8</v>
       </c>
-      <c r="E16" s="89">
+      <c r="E16" s="86">
         <v>138.5</v>
       </c>
-      <c r="F16" s="89">
+      <c r="F16" s="86">
         <v>164.2</v>
       </c>
-      <c r="G16" s="89"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="89"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="89"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="86" t="s">
+      <c r="G16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="Q16" s="86"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="89">
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="86">
         <v>17.5</v>
       </c>
-      <c r="E17" s="89">
+      <c r="E17" s="86">
         <v>15.3</v>
       </c>
-      <c r="F17" s="89">
+      <c r="F17" s="86">
         <v>38.299999999999997</v>
       </c>
-      <c r="G17" s="89"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="89"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="89"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="86" t="s">
+      <c r="G17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="Q17" s="86"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="89">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="86">
         <v>1</v>
       </c>
-      <c r="E18" s="89">
+      <c r="E18" s="86">
         <v>7.9</v>
       </c>
-      <c r="F18" s="89">
+      <c r="F18" s="86">
         <v>42.1</v>
       </c>
-      <c r="G18" s="89"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="89"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="89"/>
-    </row>
-    <row r="19" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="86" t="s">
+      <c r="G18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="Q18" s="86"/>
+    </row>
+    <row r="19" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="89">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="86">
         <v>993.8</v>
       </c>
-      <c r="E19" s="89">
+      <c r="E19" s="86">
         <v>1312.8</v>
       </c>
-      <c r="F19" s="89">
+      <c r="F19" s="86">
         <v>1488</v>
       </c>
-      <c r="G19" s="89"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="89"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="89"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="86" t="s">
+      <c r="G19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="Q19" s="86"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="89">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="86">
         <v>60.2</v>
       </c>
-      <c r="E20" s="89">
+      <c r="E20" s="86">
         <v>284.39999999999998</v>
       </c>
-      <c r="F20" s="89">
+      <c r="F20" s="86">
         <v>321.8</v>
       </c>
-      <c r="G20" s="89"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="89"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="89"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="86" t="s">
+      <c r="G20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="Q20" s="86"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="90"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="86" t="s">
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="94">
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="89">
         <v>-80</v>
       </c>
-      <c r="E22" s="94">
+      <c r="E22" s="89">
         <v>-84.7</v>
       </c>
-      <c r="F22" s="94">
+      <c r="F22" s="89">
         <v>-147.30000000000001</v>
       </c>
-      <c r="G22" s="94"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="94"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="94"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="86" t="s">
+      <c r="G22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="Q22" s="89"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="89">
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="86">
         <v>27.7</v>
       </c>
-      <c r="E23" s="89">
+      <c r="E23" s="86">
         <v>143.19999999999999</v>
       </c>
-      <c r="F23" s="89">
+      <c r="F23" s="86">
         <v>152.69999999999999</v>
       </c>
-      <c r="G23" s="89"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="89"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="89"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="86" t="s">
+      <c r="G23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="Q23" s="86"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="93" t="s">
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="93" t="s">
+      <c r="E24" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="89">
+      <c r="F24" s="86">
         <v>274.60000000000002</v>
       </c>
-      <c r="G24" s="89"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="93"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="93"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="86" t="s">
+      <c r="G24" s="86"/>
+      <c r="L24" s="85"/>
+      <c r="Q24" s="85"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="89">
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="86">
         <v>0.1</v>
       </c>
-      <c r="E25" s="89">
+      <c r="E25" s="86">
         <v>0.7</v>
       </c>
-      <c r="F25" s="89">
+      <c r="F25" s="86">
         <v>7</v>
       </c>
-      <c r="G25" s="89"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="89"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="89"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
+      <c r="G25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="Q25" s="86"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="94">
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="89">
         <v>-52.2</v>
       </c>
-      <c r="E26" s="89">
+      <c r="E26" s="86">
         <v>59.2</v>
       </c>
-      <c r="F26" s="89">
+      <c r="F26" s="86">
         <v>287</v>
       </c>
-      <c r="G26" s="89"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="89"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="94"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="86" t="s">
+      <c r="G26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="Q26" s="89"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="89">
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="86">
         <v>8</v>
       </c>
-      <c r="E27" s="89">
+      <c r="E27" s="86">
         <v>343.6</v>
       </c>
-      <c r="F27" s="89">
+      <c r="F27" s="86">
         <v>608.79999999999995</v>
       </c>
-      <c r="G27" s="89"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="89"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="89"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="86" t="s">
+      <c r="G27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="Q27" s="86"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="89">
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="86">
         <v>5.3</v>
       </c>
-      <c r="E28" s="94">
+      <c r="E28" s="89">
         <v>-94.5</v>
       </c>
-      <c r="F28" s="94">
+      <c r="F28" s="89">
         <v>-169.4</v>
       </c>
-      <c r="G28" s="94"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="94"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="89"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="86" t="s">
+      <c r="G28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="Q28" s="86"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="89">
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="86">
         <v>13.3</v>
       </c>
-      <c r="E29" s="89">
+      <c r="E29" s="86">
         <v>249.1</v>
       </c>
-      <c r="F29" s="89">
+      <c r="F29" s="86">
         <v>439.4</v>
       </c>
-      <c r="G29" s="89"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="89"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="89"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="86" t="s">
+      <c r="G29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="Q29" s="86"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="94">
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="89">
         <v>-95.4</v>
       </c>
-      <c r="E30" s="93" t="s">
+      <c r="E30" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="93" t="s">
+      <c r="F30" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="93"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="93"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="94"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="86" t="s">
+      <c r="G30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="Q30" s="89"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="94">
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="89">
         <v>-82.1</v>
       </c>
-      <c r="E31" s="89">
+      <c r="E31" s="86">
         <v>249.1</v>
       </c>
-      <c r="F31" s="89">
+      <c r="F31" s="86">
         <v>439.4</v>
       </c>
-      <c r="G31" s="89"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="89"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="94"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="86" t="s">
+      <c r="G31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="Q31" s="89"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="94">
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="89">
         <v>-0.2</v>
       </c>
-      <c r="E32" s="93" t="s">
+      <c r="E32" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="93" t="s">
+      <c r="F32" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="93"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="93"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="94"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="86" t="s">
+      <c r="G32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="Q32" s="89"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="91">
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="87">
         <v>-81.900000000000006</v>
       </c>
-      <c r="E33" s="92">
+      <c r="E33" s="88">
         <v>249.1</v>
       </c>
-      <c r="F33" s="92">
+      <c r="F33" s="88">
         <v>439.4</v>
       </c>
-      <c r="G33" s="92"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="92"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="91"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="90"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="86" t="s">
+      <c r="G33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="Q33" s="87"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="94"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="86" t="s">
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="92">
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="88">
         <v>0.34</v>
       </c>
-      <c r="E36" s="92">
+      <c r="E36" s="88">
         <v>6.45</v>
       </c>
-      <c r="F36" s="92">
+      <c r="F36" s="88">
         <v>11.58</v>
       </c>
-      <c r="G36" s="92"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="92"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="92"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="86" t="s">
+      <c r="G36" s="88"/>
+      <c r="L36" s="88"/>
+      <c r="Q36" s="88"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="91">
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="87">
         <v>-2.41</v>
       </c>
-      <c r="E37" s="93" t="s">
+      <c r="E37" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="93" t="s">
+      <c r="F37" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="G37" s="93"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="93"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="91"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="86" t="s">
+      <c r="G37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="Q37" s="87"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="91">
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="87">
         <v>-2.0699999999999998</v>
       </c>
-      <c r="E38" s="92">
+      <c r="E38" s="88">
         <v>6.45</v>
       </c>
-      <c r="F38" s="92">
+      <c r="F38" s="88">
         <v>11.58</v>
       </c>
-      <c r="G38" s="92"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="92"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="91"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="87"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="90"/>
-      <c r="R39" s="90"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="86" t="s">
+      <c r="G38" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="Q38" s="87"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="94"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="94"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="90"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="86" t="s">
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="92">
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="88">
         <v>0.33</v>
       </c>
-      <c r="E41" s="92">
+      <c r="E41" s="88">
         <v>6.35</v>
       </c>
-      <c r="F41" s="92">
+      <c r="F41" s="88">
         <v>11.42</v>
       </c>
-      <c r="G41" s="92"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="92"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="90"/>
-      <c r="Q41" s="92"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="86" t="s">
+      <c r="G41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="Q41" s="88"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="91">
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="87">
         <v>-2.41</v>
       </c>
-      <c r="E42" s="93" t="s">
+      <c r="E42" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="93" t="s">
+      <c r="F42" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="G42" s="93"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="93"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="91"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="86" t="s">
+      <c r="G42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="Q42" s="87"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="91">
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="87">
         <v>-2.08</v>
       </c>
-      <c r="E43" s="92">
+      <c r="E43" s="88">
         <v>6.35</v>
       </c>
-      <c r="F43" s="92">
+      <c r="F43" s="88">
         <v>11.42</v>
       </c>
-      <c r="G43" s="92"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="92"/>
-      <c r="N43" s="90"/>
-      <c r="O43" s="90"/>
-      <c r="P43" s="90"/>
-      <c r="Q43" s="91"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="87"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="90"/>
-      <c r="P44" s="90"/>
-      <c r="Q44" s="90"/>
-      <c r="R44" s="90"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="86" t="s">
+      <c r="G43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="Q43" s="87"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="94"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="90"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="90"/>
-      <c r="P45" s="90"/>
-      <c r="Q45" s="90"/>
-      <c r="R45" s="90"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="86" t="s">
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="89">
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="86">
         <v>39.6</v>
       </c>
-      <c r="E46" s="89">
+      <c r="E46" s="86">
         <v>38.6</v>
       </c>
-      <c r="F46" s="89">
+      <c r="F46" s="86">
         <v>37.9</v>
       </c>
-      <c r="G46" s="89"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="89"/>
-      <c r="N46" s="90"/>
-      <c r="O46" s="90"/>
-      <c r="P46" s="90"/>
-      <c r="Q46" s="89"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="86" t="s">
+      <c r="G46" s="86"/>
+      <c r="L46" s="86"/>
+      <c r="Q46" s="86"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="89">
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="86">
         <v>40.1</v>
       </c>
-      <c r="E47" s="89">
+      <c r="E47" s="86">
         <v>39.200000000000003</v>
       </c>
-      <c r="F47" s="89">
+      <c r="F47" s="86">
         <v>38.5</v>
       </c>
-      <c r="G47" s="89"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="89"/>
-      <c r="N47" s="90"/>
-      <c r="O47" s="90"/>
-      <c r="P47" s="90"/>
-      <c r="Q47" s="89"/>
+      <c r="G47" s="86"/>
+      <c r="L47" s="86"/>
+      <c r="Q47" s="86"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="D4:R47">
     <sortCondition ref="D4:R4"/>
   </sortState>
   <mergeCells count="45">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A38:C38"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5714,1099 +5362,781 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="93" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="91">
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="87">
         <v>-82.1</v>
       </c>
-      <c r="E6" s="92">
+      <c r="E6" s="88">
         <v>249.1</v>
       </c>
-      <c r="F6" s="92">
+      <c r="F6" s="88">
         <v>439.4</v>
       </c>
-      <c r="G6" s="92"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="92"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="91"/>
+      <c r="G6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="Q6" s="87"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="94">
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="89">
         <v>-95.4</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="93"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="93"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="94"/>
+      <c r="G7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="Q7" s="89"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="92">
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="88">
         <v>13.3</v>
       </c>
-      <c r="E8" s="92">
+      <c r="E8" s="88">
         <v>249.1</v>
       </c>
-      <c r="F8" s="92">
+      <c r="F8" s="88">
         <v>439.4</v>
       </c>
-      <c r="G8" s="92"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="92"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="92"/>
+      <c r="G8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="Q8" s="88"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="89">
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="86">
         <v>92.9</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="86">
         <v>103.2</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="86">
         <v>113.7</v>
       </c>
-      <c r="G10" s="89"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="89"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="89"/>
+      <c r="G10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="Q10" s="86"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="94">
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="89">
         <v>-27.7</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="89">
         <v>-143.19999999999999</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="89">
         <v>-152.69999999999999</v>
       </c>
-      <c r="G11" s="94"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="94"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="94"/>
+      <c r="G11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="Q11" s="89"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="89">
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="86">
         <v>30.7</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="86">
         <v>109.4</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="86">
         <v>156.9</v>
       </c>
-      <c r="G12" s="89"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="89"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="89"/>
+      <c r="G12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="Q12" s="86"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="89">
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="86">
         <v>23.7</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13" s="86">
         <v>27.8</v>
       </c>
-      <c r="F13" s="89">
+      <c r="F13" s="86">
         <v>31.8</v>
       </c>
-      <c r="G13" s="89"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="89"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="89"/>
+      <c r="G13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="Q13" s="86"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="89">
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="86">
         <v>30.1</v>
       </c>
-      <c r="E14" s="89">
+      <c r="E14" s="86">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F14" s="89">
+      <c r="F14" s="86">
         <v>108.7</v>
       </c>
-      <c r="G14" s="89"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="89"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="89"/>
+      <c r="G14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="Q14" s="86"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="89">
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="86">
         <v>17.5</v>
       </c>
-      <c r="E15" s="89">
+      <c r="E15" s="86">
         <v>15.3</v>
       </c>
-      <c r="F15" s="89">
+      <c r="F15" s="86">
         <v>38.299999999999997</v>
       </c>
-      <c r="G15" s="89"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="89"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="89"/>
+      <c r="G15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="Q15" s="86"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="89">
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="86">
         <v>5</v>
       </c>
-      <c r="E16" s="89">
+      <c r="E16" s="86">
         <v>5.3</v>
       </c>
-      <c r="F16" s="89">
+      <c r="F16" s="86">
         <v>5.3</v>
       </c>
-      <c r="G16" s="89"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="89"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="89"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="86" t="s">
+      <c r="G16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="Q16" s="86"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="93" t="s">
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="93" t="s">
+      <c r="E17" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="94">
+      <c r="F17" s="89">
         <v>-274.60000000000002</v>
       </c>
-      <c r="G17" s="94"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="93"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="93"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="86" t="s">
+      <c r="G17" s="89"/>
+      <c r="L17" s="85"/>
+      <c r="Q17" s="85"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="89">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="86">
         <v>4.5</v>
       </c>
-      <c r="E19" s="89">
+      <c r="E19" s="86">
         <v>5.3</v>
       </c>
-      <c r="F19" s="89">
+      <c r="F19" s="86">
         <v>7.4</v>
       </c>
-      <c r="G19" s="89"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="89"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="89"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="86" t="s">
+      <c r="G19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="Q19" s="86"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="86" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="94">
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="89">
         <v>-34.6</v>
       </c>
-      <c r="E21" s="89">
+      <c r="E21" s="86">
         <v>12.9</v>
       </c>
-      <c r="F21" s="89">
+      <c r="F21" s="86">
         <v>28.2</v>
       </c>
-      <c r="G21" s="89"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="89"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="94"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="86" t="s">
+      <c r="G21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="Q21" s="89"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="94">
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="89">
         <v>-8.3000000000000007</v>
       </c>
-      <c r="E22" s="89">
+      <c r="E22" s="86">
         <v>10.7</v>
       </c>
-      <c r="F22" s="94">
+      <c r="F22" s="89">
         <v>-12.7</v>
       </c>
-      <c r="G22" s="94"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="89"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="94"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="86" t="s">
+      <c r="G22" s="89"/>
+      <c r="L22" s="86"/>
+      <c r="Q22" s="89"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="94">
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="89">
         <v>-3.9</v>
       </c>
-      <c r="E24" s="89">
+      <c r="E24" s="86">
         <v>53.9</v>
       </c>
-      <c r="F24" s="89">
+      <c r="F24" s="86">
         <v>21.1</v>
       </c>
-      <c r="G24" s="89"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="89"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="94"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="86" t="s">
+      <c r="G24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="Q24" s="89"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="89">
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="86">
         <v>143.19999999999999</v>
       </c>
-      <c r="E25" s="89">
+      <c r="E25" s="86">
         <v>459.5</v>
       </c>
-      <c r="F25" s="89">
+      <c r="F25" s="86">
         <v>510.8</v>
       </c>
-      <c r="G25" s="89"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="89"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="89"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
+      <c r="G25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="Q25" s="86"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="86" t="s">
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="94">
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="89">
         <v>-23</v>
       </c>
-      <c r="E27" s="94">
+      <c r="E27" s="89">
         <v>-39.5</v>
       </c>
-      <c r="F27" s="94">
+      <c r="F27" s="89">
         <v>-50.2</v>
       </c>
-      <c r="G27" s="94"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="94"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="94"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="86" t="s">
+      <c r="G27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="Q27" s="89"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="94">
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="89">
         <v>-211.2</v>
       </c>
-      <c r="E28" s="94">
+      <c r="E28" s="89">
         <v>-52.3</v>
       </c>
-      <c r="F28" s="94">
+      <c r="F28" s="89">
         <v>-373.3</v>
       </c>
-      <c r="G28" s="94"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="94"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="94"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="86" t="s">
+      <c r="G28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="Q28" s="89"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="93" t="s">
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="93" t="s">
+      <c r="E29" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="94">
+      <c r="F29" s="89">
         <v>-2918.5</v>
       </c>
-      <c r="G29" s="94"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="93"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="93"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="86" t="s">
+      <c r="G29" s="89"/>
+      <c r="L29" s="85"/>
+      <c r="Q29" s="85"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="93" t="s">
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="93" t="s">
+      <c r="E31" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="94">
+      <c r="F31" s="89">
         <v>-33.299999999999997</v>
       </c>
-      <c r="G31" s="94"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="93"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="93"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="86" t="s">
+      <c r="G31" s="89"/>
+      <c r="L31" s="85"/>
+      <c r="Q31" s="85"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="93" t="s">
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="93" t="s">
+      <c r="E32" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="89">
+      <c r="F32" s="86">
         <v>279</v>
       </c>
-      <c r="G32" s="89"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="93"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="93"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="86" t="s">
+      <c r="G32" s="86"/>
+      <c r="L32" s="85"/>
+      <c r="Q32" s="85"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="94">
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="89">
         <v>-5.2</v>
       </c>
-      <c r="E33" s="94">
+      <c r="E33" s="89">
         <v>-8.6</v>
       </c>
-      <c r="F33" s="94">
+      <c r="F33" s="89">
         <v>-7.4</v>
       </c>
-      <c r="G33" s="94"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="94"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="94"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="86" t="s">
+      <c r="G33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="Q33" s="89"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="94">
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="89">
         <v>-239.4</v>
       </c>
-      <c r="E34" s="94">
+      <c r="E34" s="89">
         <v>-100.4</v>
       </c>
-      <c r="F34" s="94">
+      <c r="F34" s="89">
         <v>-3103.7</v>
       </c>
-      <c r="G34" s="94"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="94"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="94"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="86" t="s">
+      <c r="G34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="Q34" s="89"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="86" t="s">
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="89">
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="86">
         <v>726.1</v>
       </c>
-      <c r="E36" s="89">
+      <c r="E36" s="86">
         <v>780.8</v>
       </c>
-      <c r="F36" s="89">
+      <c r="F36" s="86">
         <v>2862.4</v>
       </c>
-      <c r="G36" s="89"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="89"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="89"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="86" t="s">
+      <c r="G36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="Q36" s="86"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="94">
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="89">
         <v>-580.4</v>
       </c>
-      <c r="E37" s="94">
+      <c r="E37" s="89">
         <v>-430.9</v>
       </c>
-      <c r="F37" s="94">
+      <c r="F37" s="89">
         <v>-205.4</v>
       </c>
-      <c r="G37" s="94"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="94"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="94"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="86" t="s">
+      <c r="G37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="Q37" s="89"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="94">
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="89">
         <v>-23.4</v>
       </c>
-      <c r="E38" s="94">
+      <c r="E38" s="89">
         <v>-24.8</v>
       </c>
-      <c r="F38" s="94">
+      <c r="F38" s="89">
         <v>-26</v>
       </c>
-      <c r="G38" s="94"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="94"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="94"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="86" t="s">
+      <c r="G38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="Q38" s="89"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="94">
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="89">
         <v>-28.4</v>
       </c>
-      <c r="E39" s="94">
+      <c r="E39" s="89">
         <v>-297.5</v>
       </c>
-      <c r="F39" s="94">
+      <c r="F39" s="89">
         <v>-174.9</v>
       </c>
-      <c r="G39" s="94"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="94"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="94"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="86" t="s">
+      <c r="G39" s="89"/>
+      <c r="L39" s="89"/>
+      <c r="Q39" s="89"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="94">
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="89">
         <v>-12.7</v>
       </c>
-      <c r="E40" s="93" t="s">
+      <c r="E40" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F40" s="93" t="s">
+      <c r="F40" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="G40" s="93"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="93"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="94"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="86" t="s">
+      <c r="G40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="Q40" s="89"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="94">
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="89">
         <v>-18.7</v>
       </c>
-      <c r="E41" s="94">
+      <c r="E41" s="89">
         <v>-12.9</v>
       </c>
-      <c r="F41" s="94">
+      <c r="F41" s="89">
         <v>-28.4</v>
       </c>
-      <c r="G41" s="94"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="94"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="90"/>
-      <c r="Q41" s="94"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="86" t="s">
+      <c r="G41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="Q41" s="89"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="94">
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="89">
         <v>-2</v>
       </c>
-      <c r="E44" s="94">
+      <c r="E44" s="89">
         <v>-6.9</v>
       </c>
-      <c r="F44" s="94">
+      <c r="F44" s="89">
         <v>-27.3</v>
       </c>
-      <c r="G44" s="94"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="94"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="90"/>
-      <c r="P44" s="90"/>
-      <c r="Q44" s="94"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="86" t="s">
+      <c r="G44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="Q44" s="89"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="89">
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="86">
         <v>13.4</v>
       </c>
-      <c r="E45" s="94">
+      <c r="E45" s="89">
         <v>-10.5</v>
       </c>
-      <c r="F45" s="89">
+      <c r="F45" s="86">
         <v>13.3</v>
       </c>
-      <c r="G45" s="89"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="94"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="90"/>
-      <c r="P45" s="90"/>
-      <c r="Q45" s="89"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="86" t="s">
+      <c r="G45" s="86"/>
+      <c r="L45" s="89"/>
+      <c r="Q45" s="86"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="89">
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="86">
         <v>2.1</v>
       </c>
-      <c r="E46" s="89">
+      <c r="E46" s="86">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F46" s="89">
+      <c r="F46" s="86">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G46" s="89"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="89"/>
-      <c r="N46" s="90"/>
-      <c r="O46" s="90"/>
-      <c r="P46" s="90"/>
-      <c r="Q46" s="89"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="86" t="s">
+      <c r="G46" s="86"/>
+      <c r="L46" s="86"/>
+      <c r="Q46" s="86"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="89">
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="86">
         <v>76</v>
       </c>
-      <c r="E47" s="94">
+      <c r="E47" s="89">
         <v>-0.5</v>
       </c>
-      <c r="F47" s="89">
+      <c r="F47" s="86">
         <v>2416</v>
       </c>
-      <c r="G47" s="89"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="94"/>
-      <c r="N47" s="90"/>
-      <c r="O47" s="90"/>
-      <c r="P47" s="90"/>
-      <c r="Q47" s="89"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="86" t="s">
+      <c r="G47" s="86"/>
+      <c r="L47" s="89"/>
+      <c r="Q47" s="86"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="90"/>
-      <c r="N48" s="90"/>
-      <c r="O48" s="90"/>
-      <c r="P48" s="90"/>
-      <c r="Q48" s="90"/>
-      <c r="R48" s="90"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="86" t="s">
+      <c r="A49" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="94">
+      <c r="B49" s="93"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="89">
         <v>-1.3</v>
       </c>
-      <c r="E49" s="94">
+      <c r="E49" s="89">
         <v>-124</v>
       </c>
-      <c r="F49" s="89">
+      <c r="F49" s="86">
         <v>26</v>
       </c>
-      <c r="G49" s="89"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="90"/>
-      <c r="K49" s="90"/>
-      <c r="L49" s="94"/>
-      <c r="N49" s="90"/>
-      <c r="O49" s="90"/>
-      <c r="P49" s="90"/>
-      <c r="Q49" s="94"/>
+      <c r="G49" s="86"/>
+      <c r="L49" s="89"/>
+      <c r="Q49" s="89"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="86" t="s">
+      <c r="A50" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="94">
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="89">
         <v>-21.5</v>
       </c>
-      <c r="E50" s="89">
+      <c r="E50" s="86">
         <v>234.6</v>
       </c>
-      <c r="F50" s="94">
+      <c r="F50" s="89">
         <v>-150.9</v>
       </c>
-      <c r="G50" s="94"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="89"/>
-      <c r="N50" s="90"/>
-      <c r="O50" s="90"/>
-      <c r="P50" s="90"/>
-      <c r="Q50" s="94"/>
+      <c r="G50" s="89"/>
+      <c r="L50" s="86"/>
+      <c r="Q50" s="89"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="86" t="s">
+      <c r="A52" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="89">
+      <c r="B52" s="93"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="86">
         <v>142.5</v>
       </c>
-      <c r="E52" s="89">
+      <c r="E52" s="86">
         <v>121</v>
       </c>
-      <c r="F52" s="89">
+      <c r="F52" s="86">
         <v>355.6</v>
       </c>
-      <c r="G52" s="89"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="90"/>
-      <c r="K52" s="90"/>
-      <c r="L52" s="89"/>
-      <c r="N52" s="90"/>
-      <c r="O52" s="90"/>
-      <c r="P52" s="90"/>
-      <c r="Q52" s="89"/>
+      <c r="G52" s="86"/>
+      <c r="L52" s="86"/>
+      <c r="Q52" s="86"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="86" t="s">
+      <c r="A53" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="92">
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="88">
         <v>121</v>
       </c>
-      <c r="E53" s="92">
+      <c r="E53" s="88">
         <v>355.6</v>
       </c>
-      <c r="F53" s="92">
+      <c r="F53" s="88">
         <v>204.7</v>
       </c>
-      <c r="G53" s="92"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="92"/>
-      <c r="N53" s="90"/>
-      <c r="O53" s="90"/>
-      <c r="P53" s="90"/>
-      <c r="Q53" s="92"/>
+      <c r="G53" s="88"/>
+      <c r="L53" s="88"/>
+      <c r="Q53" s="88"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C54" s="80"/>
@@ -6837,51 +6167,51 @@
     <sortCondition ref="D4:R4"/>
   </sortState>
   <mergeCells count="45">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6892,7 +6222,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7078,7 +6408,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="23">
         <f>'CHDN DCF'!D63</f>
-        <v>10196.20836594</v>
+        <v>10477.710263699999</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -7096,7 +6426,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="23">
         <f>G12+C12</f>
-        <v>10745.30836594</v>
+        <v>11026.810263699999</v>
       </c>
       <c r="L12" s="2"/>
     </row>
@@ -7107,7 +6437,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="46">
         <f>C12/K12</f>
-        <v>0.94889862800582692</v>
+        <v>0.95020318778789326</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -7116,7 +6446,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="47">
         <f>G12/K12</f>
-        <v>5.110137199417307E-2</v>
+        <v>4.9796812212106724E-2</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -7148,7 +6478,7 @@
       <c r="J14" s="50"/>
       <c r="K14" s="51">
         <f>C13*C14+G14*G13*(1-D6)</f>
-        <v>0.10214834980722237</v>
+        <v>0.10221604341431378</v>
       </c>
       <c r="L14" s="2"/>
     </row>
